--- a/数据整理/stocks/港股/01981-华夏视听教育集团.xlsx
+++ b/数据整理/stocks/港股/01981-华夏视听教育集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>202801</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>南方全球精选配置(QDII-FOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>29.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>31.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519602</t>
+          <t>001691</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海富通大中华精选混合QDII</t>
+          <t>南方香港成长灵活配置混合QDII</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001691</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方香港成长灵活配置混合QDII</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>080006</t>
+          <t>519602</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛环球行业混合(QDII)</t>
+          <t>海富通大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>202801</t>
+          <t>080006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方全球精选配置(QDII-FOF)</t>
+          <t>长盛环球行业混合(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31.37</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>202801</t>
+          <t>001691</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方全球精选配置(QDII-FOF)</t>
+          <t>南方香港成长灵活配置混合QDII</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.74</t>
+          <t>35.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001691</t>
+          <t>202801</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方香港成长灵活配置混合QDII</t>
+          <t>南方全球精选配置(QDII-FOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.88</t>
+          <t>26.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -744,15 +834,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.88</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.62</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -772,15 +872,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.07</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.65</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01981-华夏视听教育集团.xlsx
+++ b/数据整理/stocks/港股/01981-华夏视听教育集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01981-华夏视听教育集团.xlsx
+++ b/数据整理/stocks/港股/01981-华夏视听教育集团.xlsx
@@ -922,12 +922,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/01981-华夏视听教育集团.xlsx
+++ b/数据整理/stocks/港股/01981-华夏视听教育集团.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.53</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +1048,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.89</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01981-华夏视听教育集团.xlsx
+++ b/数据整理/stocks/港股/01981-华夏视听教育集团.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,247 +453,179 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>202801</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方全球精选配置(QDII-FOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>31.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4857</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001691</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方香港成长灵活配置混合QDII</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3190</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519601</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>海富通中国海外精选混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0651</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519602</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>海富通大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>080006</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长盛环球行业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+      <c r="D4" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,59 +833,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -968,113 +900,181 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>29.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.82</t>
+          <t>31.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1674</t>
+          <t>0.4857</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>